--- a/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_CN.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_CN.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.696</v>
+        <v>1.293</v>
       </c>
       <c r="E2" t="n">
-        <v>1.708</v>
+        <v>1.55</v>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.325</v>
+        <v>0.567</v>
       </c>
       <c r="H2" t="n">
-        <v>2.723</v>
+        <v>3.752</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.696</v>
+        <v>1.293</v>
       </c>
       <c r="E3" t="n">
-        <v>1.106</v>
+        <v>2.252</v>
       </c>
       <c r="F3" t="n">
-        <v>1.063</v>
+        <v>2.091</v>
       </c>
       <c r="G3" t="n">
-        <v>0.586</v>
+        <v>0.389</v>
       </c>
       <c r="H3" t="n">
-        <v>2.723</v>
+        <v>3.752</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.696</v>
+        <v>1.293</v>
       </c>
       <c r="E4" t="n">
-        <v>1.288</v>
+        <v>1.55</v>
       </c>
       <c r="F4" t="n">
-        <v>1.262</v>
+        <v>1.679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.345</v>
+        <v>0.519</v>
       </c>
       <c r="H4" t="n">
-        <v>2.379</v>
+        <v>3.752</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.696</v>
+        <v>0.711</v>
       </c>
       <c r="E5" t="n">
-        <v>1.106</v>
+        <v>1.374</v>
       </c>
       <c r="F5" t="n">
-        <v>1.063</v>
+        <v>1.442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.515</v>
+        <v>0.501</v>
       </c>
       <c r="H5" t="n">
-        <v>2.723</v>
+        <v>3.329</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.124</v>
+        <v>0.711</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1</v>
+        <v>1.811</v>
       </c>
       <c r="F6" t="n">
-        <v>1.042</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.532</v>
+        <v>0.28</v>
       </c>
       <c r="H6" t="n">
-        <v>3.075</v>
+        <v>3.108</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -555,25 +555,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.669</v>
+        <v>1.293</v>
       </c>
       <c r="E7" t="n">
-        <v>1.068</v>
+        <v>1.55</v>
       </c>
       <c r="F7" t="n">
-        <v>0.93</v>
+        <v>1.679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.357</v>
+        <v>0.489</v>
       </c>
       <c r="H7" t="n">
-        <v>2.417</v>
+        <v>3.752</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -584,25 +584,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.696</v>
+        <v>0.711</v>
       </c>
       <c r="E8" t="n">
-        <v>1.106</v>
+        <v>1.374</v>
       </c>
       <c r="F8" t="n">
-        <v>1.063</v>
+        <v>1.442</v>
       </c>
       <c r="G8" t="n">
-        <v>0.39</v>
+        <v>0.331</v>
       </c>
       <c r="H8" t="n">
-        <v>2.723</v>
+        <v>3.329</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -613,25 +613,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.669</v>
+        <v>0.711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.84</v>
+        <v>1.106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.826</v>
+        <v>0.99</v>
       </c>
       <c r="G9" t="n">
-        <v>0.434</v>
+        <v>0.448</v>
       </c>
       <c r="H9" t="n">
-        <v>1.974</v>
+        <v>2.672</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -642,25 +642,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1.124</v>
+        <v>1.417</v>
       </c>
       <c r="E10" t="n">
-        <v>1.1</v>
+        <v>1.199</v>
       </c>
       <c r="F10" t="n">
-        <v>1.042</v>
+        <v>1.211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.498</v>
+        <v>0.529</v>
       </c>
       <c r="H10" t="n">
-        <v>3.075</v>
+        <v>3.66</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.669</v>
+        <v>1.293</v>
       </c>
       <c r="E11" t="n">
-        <v>1.068</v>
+        <v>1.55</v>
       </c>
       <c r="F11" t="n">
-        <v>0.93</v>
+        <v>1.679</v>
       </c>
       <c r="G11" t="n">
-        <v>0.357</v>
+        <v>0.455</v>
       </c>
       <c r="H11" t="n">
-        <v>2.417</v>
+        <v>3.752</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -700,25 +700,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E12" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G12" t="n">
-        <v>0.421</v>
+        <v>0.76</v>
       </c>
       <c r="H12" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E13" t="n">
-        <v>0.826</v>
+        <v>1.033</v>
       </c>
       <c r="F13" t="n">
-        <v>0.738</v>
+        <v>0.912</v>
       </c>
       <c r="G13" t="n">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.333</v>
+        <v>3.106</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +758,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.669</v>
+        <v>0.711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.84</v>
+        <v>1.106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.826</v>
+        <v>0.99</v>
       </c>
       <c r="G14" t="n">
-        <v>0.398</v>
+        <v>0.393</v>
       </c>
       <c r="H14" t="n">
-        <v>1.974</v>
+        <v>2.672</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1.124</v>
+        <v>1.417</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1</v>
+        <v>1.199</v>
       </c>
       <c r="F15" t="n">
-        <v>1.042</v>
+        <v>1.211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.498</v>
+        <v>0.529</v>
       </c>
       <c r="H15" t="n">
-        <v>3.075</v>
+        <v>3.66</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -816,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0.669</v>
+        <v>1.293</v>
       </c>
       <c r="E16" t="n">
-        <v>1.068</v>
+        <v>1.55</v>
       </c>
       <c r="F16" t="n">
-        <v>0.93</v>
+        <v>1.679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.291</v>
+        <v>0.455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.417</v>
+        <v>3.752</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E17" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F17" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.739</v>
       </c>
       <c r="H17" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -877,19 +877,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E18" t="n">
-        <v>0.826</v>
+        <v>0.532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.738</v>
+        <v>0.586</v>
       </c>
       <c r="G18" t="n">
-        <v>0.34</v>
+        <v>0.573</v>
       </c>
       <c r="H18" t="n">
-        <v>2.333</v>
+        <v>2.527</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -903,22 +903,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.666</v>
+        <v>0.783</v>
       </c>
       <c r="E19" t="n">
-        <v>0.332</v>
+        <v>0.637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.332</v>
+        <v>0.609</v>
       </c>
       <c r="G19" t="n">
-        <v>0.71</v>
+        <v>0.555</v>
       </c>
       <c r="H19" t="n">
-        <v>1.835</v>
+        <v>3.298</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -932,22 +932,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.124</v>
+        <v>0.711</v>
       </c>
       <c r="E20" t="n">
-        <v>1.1</v>
+        <v>1.106</v>
       </c>
       <c r="F20" t="n">
-        <v>1.042</v>
+        <v>0.99</v>
       </c>
       <c r="G20" t="n">
-        <v>0.435</v>
+        <v>0.247</v>
       </c>
       <c r="H20" t="n">
-        <v>3.075</v>
+        <v>2.672</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -961,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.666</v>
+        <v>1.417</v>
       </c>
       <c r="E21" t="n">
-        <v>0.649</v>
+        <v>1.199</v>
       </c>
       <c r="F21" t="n">
-        <v>0.686</v>
+        <v>1.211</v>
       </c>
       <c r="G21" t="n">
-        <v>0.384</v>
+        <v>0.529</v>
       </c>
       <c r="H21" t="n">
-        <v>1.862</v>
+        <v>3.66</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -990,23 +990,25 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F22"/>
+        <v>1.037</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.293</v>
+      </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="H22" t="n">
-        <v>2.281</v>
+        <v>3.852</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1017,25 +1019,25 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E23" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.421</v>
+        <v>0.739</v>
       </c>
       <c r="H23" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1049,22 +1051,22 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E24" t="n">
-        <v>0.826</v>
+        <v>0.532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.738</v>
+        <v>0.586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.34</v>
+        <v>0.573</v>
       </c>
       <c r="H24" t="n">
-        <v>2.333</v>
+        <v>2.527</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1075,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.666</v>
+        <v>0.783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.332</v>
+        <v>0.637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.332</v>
+        <v>0.609</v>
       </c>
       <c r="G25" t="n">
-        <v>0.71</v>
+        <v>0.555</v>
       </c>
       <c r="H25" t="n">
-        <v>1.835</v>
+        <v>3.298</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1104,25 +1106,25 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>1.124</v>
+        <v>0.711</v>
       </c>
       <c r="E26" t="n">
-        <v>1.1</v>
+        <v>1.106</v>
       </c>
       <c r="F26" t="n">
-        <v>1.042</v>
+        <v>0.99</v>
       </c>
       <c r="G26" t="n">
-        <v>0.409</v>
+        <v>0.247</v>
       </c>
       <c r="H26" t="n">
-        <v>3.075</v>
+        <v>2.672</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1133,25 +1135,25 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.669</v>
+        <v>1.037</v>
       </c>
       <c r="E27" t="n">
-        <v>0.786</v>
+        <v>1.181</v>
       </c>
       <c r="F27" t="n">
-        <v>0.725</v>
+        <v>1.181</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
-        <v>2.375</v>
+        <v>2.765</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1162,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666</v>
+        <v>1.417</v>
       </c>
       <c r="E28" t="n">
-        <v>0.649</v>
+        <v>1.199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.686</v>
+        <v>1.211</v>
       </c>
       <c r="G28" t="n">
-        <v>0.379</v>
+        <v>0.471</v>
       </c>
       <c r="H28" t="n">
-        <v>1.862</v>
+        <v>3.66</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1191,23 +1193,25 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F29"/>
+        <v>1.037</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.293</v>
+      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="H29" t="n">
-        <v>2.281</v>
+        <v>3.852</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1218,25 +1222,25 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E30" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F30" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G30" t="n">
-        <v>0.421</v>
+        <v>0.739</v>
       </c>
       <c r="H30" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1250,22 +1254,22 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E31" t="n">
-        <v>0.826</v>
+        <v>0.532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.738</v>
+        <v>0.586</v>
       </c>
       <c r="G31" t="n">
-        <v>0.34</v>
+        <v>0.521</v>
       </c>
       <c r="H31" t="n">
-        <v>2.333</v>
+        <v>2.527</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1276,25 +1280,25 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.666</v>
+        <v>0.783</v>
       </c>
       <c r="E32" t="n">
-        <v>0.332</v>
+        <v>0.637</v>
       </c>
       <c r="F32" t="n">
-        <v>0.332</v>
+        <v>0.609</v>
       </c>
       <c r="G32" t="n">
-        <v>0.71</v>
+        <v>0.555</v>
       </c>
       <c r="H32" t="n">
-        <v>1.835</v>
+        <v>3.298</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1305,25 +1309,25 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0.946</v>
+        <v>0.982</v>
       </c>
       <c r="E33" t="n">
-        <v>0.832</v>
+        <v>1.371</v>
       </c>
       <c r="F33" t="n">
-        <v>0.878</v>
+        <v>1.371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.256</v>
+        <v>0.136</v>
       </c>
       <c r="H33" t="n">
-        <v>2.75</v>
+        <v>2.957</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1334,25 +1338,25 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.669</v>
+        <v>1.037</v>
       </c>
       <c r="E34" t="n">
-        <v>0.786</v>
+        <v>1.181</v>
       </c>
       <c r="F34" t="n">
-        <v>0.725</v>
+        <v>1.181</v>
       </c>
       <c r="G34" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="H34" t="n">
-        <v>2.375</v>
+        <v>2.765</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1363,25 +1367,25 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.666</v>
+        <v>0.711</v>
       </c>
       <c r="E35" t="n">
-        <v>0.649</v>
+        <v>0.525</v>
       </c>
       <c r="F35" t="n">
-        <v>0.686</v>
+        <v>0.579</v>
       </c>
       <c r="G35" t="n">
-        <v>0.379</v>
+        <v>0.588</v>
       </c>
       <c r="H35" t="n">
-        <v>1.862</v>
+        <v>2.359</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1392,23 +1396,25 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F36"/>
+        <v>1.417</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.211</v>
+      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="H36" t="n">
-        <v>3.582</v>
+        <v>3.66</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1419,23 +1425,25 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F37"/>
+        <v>0.922</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.452</v>
+      </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="H37" t="n">
-        <v>2.281</v>
+        <v>3.393</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1446,25 +1454,25 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E38" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F38" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G38" t="n">
-        <v>0.375</v>
+        <v>0.739</v>
       </c>
       <c r="H38" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1475,25 +1483,25 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E39" t="n">
-        <v>0.506</v>
+        <v>0.532</v>
       </c>
       <c r="F39" t="n">
-        <v>0.488</v>
+        <v>0.586</v>
       </c>
       <c r="G39" t="n">
-        <v>0.516</v>
+        <v>0.521</v>
       </c>
       <c r="H39" t="n">
-        <v>2.093</v>
+        <v>2.527</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1504,25 +1512,25 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.666</v>
+        <v>0.783</v>
       </c>
       <c r="E40" t="n">
-        <v>0.332</v>
+        <v>0.637</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332</v>
+        <v>0.609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.71</v>
+        <v>0.555</v>
       </c>
       <c r="H40" t="n">
-        <v>1.835</v>
+        <v>3.298</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1533,25 +1541,25 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.946</v>
+        <v>0.982</v>
       </c>
       <c r="E41" t="n">
-        <v>0.832</v>
+        <v>1.371</v>
       </c>
       <c r="F41" t="n">
-        <v>0.878</v>
+        <v>1.371</v>
       </c>
       <c r="G41" t="n">
-        <v>0.256</v>
+        <v>0.136</v>
       </c>
       <c r="H41" t="n">
-        <v>2.75</v>
+        <v>2.957</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1562,25 +1570,25 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.669</v>
+        <v>1.037</v>
       </c>
       <c r="E42" t="n">
-        <v>0.786</v>
+        <v>1.181</v>
       </c>
       <c r="F42" t="n">
-        <v>0.725</v>
+        <v>1.181</v>
       </c>
       <c r="G42" t="n">
-        <v>0.357</v>
+        <v>0.287</v>
       </c>
       <c r="H42" t="n">
-        <v>2.375</v>
+        <v>2.765</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1591,25 +1599,25 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>0.666</v>
+        <v>0.711</v>
       </c>
       <c r="E43" t="n">
-        <v>0.649</v>
+        <v>0.525</v>
       </c>
       <c r="F43" t="n">
-        <v>0.686</v>
+        <v>0.579</v>
       </c>
       <c r="G43" t="n">
-        <v>0.357</v>
+        <v>0.588</v>
       </c>
       <c r="H43" t="n">
-        <v>1.862</v>
+        <v>2.359</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1620,23 +1628,25 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F44"/>
+        <v>0.922</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.65</v>
+      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H44" t="n">
-        <v>2.866</v>
+        <v>3.787</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1647,23 +1657,25 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F45"/>
+        <v>1.417</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.211</v>
+      </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="H45" t="n">
-        <v>3.582</v>
+        <v>3.66</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1677,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.967</v>
+        <v>0.922</v>
       </c>
       <c r="E46" t="e">
         <v>#NUM!</v>
@@ -1687,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.281</v>
+        <v>3.791</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1701,22 +1713,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.663</v>
+        <v>1.497</v>
       </c>
       <c r="E47" t="n">
-        <v>0.727</v>
+        <v>0.484</v>
       </c>
       <c r="F47" t="n">
-        <v>0.764</v>
+        <v>0.484</v>
       </c>
       <c r="G47" t="n">
-        <v>0.36</v>
+        <v>0.739</v>
       </c>
       <c r="H47" t="n">
-        <v>2.598</v>
+        <v>3.176</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1730,22 +1742,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>0.663</v>
+        <v>0.711</v>
       </c>
       <c r="E48" t="n">
-        <v>0.506</v>
+        <v>0.532</v>
       </c>
       <c r="F48" t="n">
-        <v>0.488</v>
+        <v>0.586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.43</v>
+        <v>0.521</v>
       </c>
       <c r="H48" t="n">
-        <v>2.093</v>
+        <v>2.527</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1759,22 +1771,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0.666</v>
+        <v>0.783</v>
       </c>
       <c r="E49" t="n">
-        <v>0.332</v>
+        <v>0.637</v>
       </c>
       <c r="F49" t="n">
-        <v>0.332</v>
+        <v>0.609</v>
       </c>
       <c r="G49" t="n">
-        <v>0.688</v>
+        <v>0.555</v>
       </c>
       <c r="H49" t="n">
-        <v>1.835</v>
+        <v>3.298</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -1788,22 +1800,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0.946</v>
+        <v>0.982</v>
       </c>
       <c r="E50" t="n">
-        <v>0.832</v>
+        <v>1.371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.878</v>
+        <v>1.371</v>
       </c>
       <c r="G50" t="n">
-        <v>0.256</v>
+        <v>0.136</v>
       </c>
       <c r="H50" t="n">
-        <v>2.75</v>
+        <v>2.957</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -1817,22 +1829,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.669</v>
+        <v>1.037</v>
       </c>
       <c r="E51" t="n">
-        <v>0.786</v>
+        <v>1.181</v>
       </c>
       <c r="F51" t="n">
-        <v>0.725</v>
+        <v>1.181</v>
       </c>
       <c r="G51" t="n">
-        <v>0.326</v>
+        <v>0.154</v>
       </c>
       <c r="H51" t="n">
-        <v>2.375</v>
+        <v>2.765</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1846,22 +1858,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>0.619</v>
+        <v>0.711</v>
       </c>
       <c r="E52" t="n">
-        <v>0.067</v>
+        <v>0.525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.067</v>
+        <v>0.579</v>
       </c>
       <c r="G52" t="n">
-        <v>0.923</v>
+        <v>0.588</v>
       </c>
       <c r="H52" t="n">
-        <v>1.659</v>
+        <v>2.359</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1875,22 +1887,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0.619</v>
+        <v>0.922</v>
       </c>
       <c r="E53" t="n">
-        <v>0.48</v>
+        <v>0.759</v>
       </c>
       <c r="F53" t="n">
-        <v>0.435</v>
+        <v>0.65</v>
       </c>
       <c r="G53" t="n">
-        <v>0.407</v>
+        <v>0.286</v>
       </c>
       <c r="H53" t="n">
-        <v>1.775</v>
+        <v>3.787</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1904,20 +1916,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F54"/>
+        <v>1.417</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.211</v>
+      </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="H54" t="n">
-        <v>2.866</v>
+        <v>3.66</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -1934,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.946</v>
+        <v>1.219</v>
       </c>
       <c r="E55" t="e">
         <v>#NUM!</v>
@@ -1944,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.582</v>
+        <v>2.845</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
